--- a/examples/office_network/ip-and-mac.xlsx
+++ b/examples/office_network/ip-and-mac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!HA!\!LINKS!\matter-thread\examples\office_network\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t xml:space="preserve">  192.168.1.1</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>192.168.1.254</t>
+  </si>
+  <si>
+    <t>192.168.1.204</t>
+  </si>
+  <si>
+    <t>3C:0B:4F:11:15:09</t>
+  </si>
+  <si>
+    <t>Yandex Hub Ethernet</t>
+  </si>
+  <si>
+    <t>Yandex</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F35"/>
+  <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,20 +1406,20 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1415,81 +1427,81 @@
         <v>51</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>28</v>
@@ -1497,28 +1509,40 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-    </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -1562,7 +1586,8 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -1573,10 +1598,14 @@
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
       <c r="C34" s="14"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
     </row>
   </sheetData>
   <sortState ref="B1:F31">
